--- a/dist/e_Hydrogen_Cost_Optimizer_v_0_3_1/_internal/modelInputs/e_Hydrogen_LCA.xlsx
+++ b/dist/e_Hydrogen_Cost_Optimizer_v_0_3_1/_internal/modelInputs/e_Hydrogen_LCA.xlsx
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>5.500550055005501e-06</v>
+        <v>5.778008898133703e-06</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.002354235423542354</v>
+        <v>0.002472987808401225</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2.354235423542354e-06</v>
+        <v>2.472987808401225e-06</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.537652417748341e-09</v>
+        <v>6.13704010555709e-09</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>2.537652417748341e-09</v>
+        <v>6.13704010555709e-09</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>2.697879791404971e-05</v>
+        <v>6.524532817821964e-05</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>2.697879791404971e-05</v>
+        <v>6.524532817821964e-05</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>4.107768705271929e-13</v>
+        <v>2.402479174379808e-12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>5.799705071314187e-07</v>
+        <v>9.877000696904001e-07</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>44.92619213231315</v>
+        <v>50</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>5.07380786768685</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5.445650969723329e-05</v>
+        <v>0.0001218528001541315</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
